--- a/uploads/Environmental And Security Issues Exploitation phase 1.xlsx
+++ b/uploads/Environmental And Security Issues Exploitation phase 1.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="12240" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15195" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -103,12 +103,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
   <si>
+    <t>Conditions precedent to be satisfied</t>
+  </si>
+  <si>
+    <t>Required actions or operation (what need to be done)</t>
+  </si>
+  <si>
+    <t>Date for compliance (timeframe, deadline)</t>
+  </si>
+  <si>
     <t>Party accountable for compliance</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Due Date for action</t>
+  </si>
+  <si>
+    <t>State authority accountable for compliance</t>
+  </si>
+  <si>
+    <t>Person in charge</t>
+  </si>
+  <si>
     <t>Input (information and documents required for compliance)</t>
   </si>
   <si>
@@ -127,36 +145,18 @@
     <t>State</t>
   </si>
   <si>
+    <t xml:space="preserve">Prepare, implement and comply with accident prevention schemes and emergency plans (Article 29.3 (a) (i) of the Mbalam Convention) </t>
+  </si>
+  <si>
+    <t>During the Exploitation Phase</t>
+  </si>
+  <si>
+    <t>Project Companies, Contractors and Sub-Contractors</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>Conditions precedent to be satisfied</t>
-  </si>
-  <si>
-    <t>Required actions or operation (what need to be done)</t>
-  </si>
-  <si>
-    <t>Date for compliance (timeframe, deadline)</t>
-  </si>
-  <si>
-    <t>Due Date for action</t>
-  </si>
-  <si>
-    <t>State authority accountable for compliance</t>
-  </si>
-  <si>
-    <t>Person in charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepare, implement and comply with accident prevention schemes and emergency plans (Article 29.3 (a) (i) of the Mbalam Convention) </t>
-  </si>
-  <si>
-    <t>During the Exploitation Phase</t>
-  </si>
-  <si>
-    <t>Project Companies, Contractors and Sub-Contractors</t>
-  </si>
-  <si>
     <t>Draft and execute an accident prevention schemes</t>
   </si>
   <si>
@@ -224,6 +224,57 @@
   </si>
   <si>
     <t>-          Reporting of any incident in accordance with the Project reporting procedures;</t>
+  </si>
+  <si>
+    <t>Notify the Government of Cameroon of any accident that occurs or any hazard that is identified within the Project Area or its immediate surroundings (Article 29.3 (c) of the Mbalam Convention)</t>
+  </si>
+  <si>
+    <t>Occurrence of an accident or Hazard</t>
+  </si>
+  <si>
+    <t>Protection of the Environment in compliance with the Legislation and standards set forth in the Convention</t>
+  </si>
+  <si>
+    <t>Undertaking to contribute 0.75% of the gross sale price of the Mbalam Ore to the Special Development Fund (Article 29.5.(g)of the Mbalam Convention)</t>
+  </si>
+  <si>
+    <t>Project Companies and Marketing Company</t>
+  </si>
+  <si>
+    <t>Setting up of the Fund Committee</t>
+  </si>
+  <si>
+    <t>Contribute to the Development of Project Areas</t>
+  </si>
+  <si>
+    <t>The State may terminate all or any part of the Project Agreements and revoke all permits, authorisations and approvals of Cam Iron and the Project Companies, and shall draw upon any Bank Guarantee, surety or other security provided under any Project Agreement, or otherwise collect compensation from Cam Iron or the applicable Project Company to indemnify it for any actual or reasonably expected Losses resulting from such Permit Withdrawal Breach / Terminate the Exploitation Permit (article 50.5.a)</t>
+  </si>
+  <si>
+    <t>Contribution of 0.75% of net profits of the Project after tax to enable Cam Iron to carry out the environmental and community support programs (Article 29.5.(i) of the Mbalam Convention)</t>
+  </si>
+  <si>
+    <t>From and after the Date of First Commercial Shipment</t>
+  </si>
+  <si>
+    <t>Cam Iron or the Project Companies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental and community support programs </t>
+  </si>
+  <si>
+    <t>Enabling the carrying out of environmental and community support programs within the framework of the sustainable development undertakings entered into under the Environmental and Social Assessment and Management Plan</t>
+  </si>
+  <si>
+    <t>Draft and execute of a Conservation Convention</t>
+  </si>
+  <si>
+    <t>Cam Iron and the State of Cameroon</t>
+  </si>
+  <si>
+    <t>Ministry of Mines / Ministry of Forests / Minstry of Finance</t>
+  </si>
+  <si>
+    <t>Fund conservation expenses</t>
   </si>
   <si>
     <r>
@@ -271,7 +322,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -290,64 +340,13 @@
       <t>Article 29.4 (h)of the Mbalam Convention)</t>
     </r>
   </si>
-  <si>
-    <t>Notify the Government of Cameroon of any accident that occurs or any hazard that is identified within the Project Area or its immediate surroundings (Article 29.3 (c) of the Mbalam Convention)</t>
-  </si>
-  <si>
-    <t>Occurrence of an accident or Hazard</t>
-  </si>
-  <si>
-    <t>Protection of the Environment in compliance with the Legislation and standards set forth in the Convention</t>
-  </si>
-  <si>
-    <t>Undertaking to contribute 0.75% of the gross sale price of the Mbalam Ore to the Special Development Fund (Article 29.5.(g)of the Mbalam Convention)</t>
-  </si>
-  <si>
-    <t>Project Companies and Marketing Company</t>
-  </si>
-  <si>
-    <t>Setting up of the Fund Committee</t>
-  </si>
-  <si>
-    <t>Contribute to the Development of Project Areas</t>
-  </si>
-  <si>
-    <t>The State may terminate all or any part of the Project Agreements and revoke all permits, authorisations and approvals of Cam Iron and the Project Companies, and shall draw upon any Bank Guarantee, surety or other security provided under any Project Agreement, or otherwise collect compensation from Cam Iron or the applicable Project Company to indemnify it for any actual or reasonably expected Losses resulting from such Permit Withdrawal Breach / Terminate the Exploitation Permit (article 50.5.a)</t>
-  </si>
-  <si>
-    <t>Contribution of 0.75% of net profits of the Project after tax to enable Cam Iron to carry out the environmental and community support programs (Article 29.5.(i) of the Mbalam Convention)</t>
-  </si>
-  <si>
-    <t>From and after the Date of First Commercial Shipment</t>
-  </si>
-  <si>
-    <t>Cam Iron or the Project Companies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental and community support programs </t>
-  </si>
-  <si>
-    <t>Enabling the carrying out of environmental and community support programs within the framework of the sustainable development undertakings entered into under the Environmental and Social Assessment and Management Plan</t>
-  </si>
-  <si>
-    <t>Draft and execute of a Conservation Convention</t>
-  </si>
-  <si>
-    <t>Cam Iron and the State of Cameroon</t>
-  </si>
-  <si>
-    <t>Ministry of Mines / Ministry of Forests / Minstry of Finance</t>
-  </si>
-  <si>
-    <t>Fund conservation expenses</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -358,18 +357,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -391,28 +383,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -421,91 +407,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -514,83 +425,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +482,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,688 +768,660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M24"/>
+  <dimension ref="A4:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9" t="s">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9" t="s">
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" ht="107.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9" t="s">
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" ht="52.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="9" t="s">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="10"/>
+      <c r="K9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="9" t="s">
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="9" t="s">
+      <c r="J10" s="10"/>
+      <c r="K10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="9" t="s">
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="9" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="9" t="s">
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="9" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="9" t="s">
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="9" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="9" t="s">
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="9" t="s">
+      <c r="J14" s="10"/>
+      <c r="K14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="9" t="s">
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="9" t="s">
+      <c r="J15" s="10"/>
+      <c r="K15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="9" t="s">
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="9" t="s">
+      <c r="J16" s="10"/>
+      <c r="K16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:13" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="9" t="s">
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="9" t="s">
+      <c r="J17" s="10"/>
+      <c r="K17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:13" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="9" t="s">
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="9" t="s">
+      <c r="J18" s="10"/>
+      <c r="K18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="9" t="s">
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="9" t="s">
+      <c r="J19" s="10"/>
+      <c r="K19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:13" ht="327" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="8" t="s">
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="1:13" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9" t="s">
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13" ht="270" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="9" t="s">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13" ht="375" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="1:13" ht="211.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9" t="s">
+      <c r="L23" s="14"/>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="1:13" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="B24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="24" t="s">
+      <c r="H24" s="9"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="L22:L24"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:J4"/>
@@ -1586,9 +1433,10 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1599,7 +1447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1611,7 +1459,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
